--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\OneDrive\Documents\SasinGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204E257-5CEF-444C-A0E0-022E8857095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78994C5-8F15-4621-940F-CC6CB08E79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2415" windowWidth="26655" windowHeight="12495" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -583,13 +583,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78994C5-8F15-4621-940F-CC6CB08E79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9FB582-B869-4CC6-9EFD-46C58242C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -597,19 +597,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -617,19 +617,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -637,19 +637,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8000</v>
+        <v>50000</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -657,19 +657,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9FB582-B869-4CC6-9EFD-46C58242C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F944AF-0868-426E-AA98-AA8C4BD9E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +660,16 @@
         <v>100000</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>15000000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F944AF-0868-426E-AA98-AA8C4BD9E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501863DB-A230-49E6-A2AD-7E46FD7D1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4185" yWindow="3555" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -477,19 +477,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -497,19 +497,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -517,19 +517,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -537,19 +537,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3000</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -557,19 +557,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>20000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -577,19 +577,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -597,19 +597,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -617,19 +617,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>25000</v>
+        <v>300000</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -637,19 +637,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>50000</v>
+        <v>400000</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -657,13 +657,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>100000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50000</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501863DB-A230-49E6-A2AD-7E46FD7D1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317BCD5C-DF3A-4D69-9103-9E155E02C216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3555" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317BCD5C-DF3A-4D69-9103-9E155E02C216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E573A39-9E2B-472C-8DE3-EA3D188AF3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,13 +480,13 @@
         <v>10000</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>50000</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>40000</v>
@@ -500,13 +500,13 @@
         <v>20000</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>50000</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>40000</v>
@@ -520,13 +520,13 @@
         <v>30000</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>50000</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>40000</v>
@@ -540,13 +540,13 @@
         <v>40000</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>50000</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>40000</v>
@@ -560,13 +560,13 @@
         <v>50000</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>50000</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>40000</v>
@@ -580,13 +580,13 @@
         <v>100000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>50000</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>40000</v>
@@ -600,13 +600,13 @@
         <v>200000</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>50000</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>40000</v>
@@ -620,13 +620,13 @@
         <v>300000</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>50000</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>40000</v>
@@ -640,13 +640,13 @@
         <v>400000</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>50000</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>40000</v>
@@ -660,13 +660,13 @@
         <v>500000</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>100000</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>100000</v>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E573A39-9E2B-472C-8DE3-EA3D188AF3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C1D51-AACF-423D-84B8-3FA8AC7B68FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E10" s="1">
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>40000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>100000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
